--- a/Template Format/Format_CustomerSoldtoList.xlsx
+++ b/Template Format/Format_CustomerSoldtoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133DFB47-684A-404D-9F82-07C17F47CD92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0328DE-E14A-453D-91A1-08F99A374E5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Customer</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>V11AD</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>HN1</t>
+  </si>
+  <si>
+    <t>School</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,12 +231,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +256,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +621,7 @@
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +661,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7901</v>
       </c>
@@ -679,8 +705,11 @@
       <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7902</v>
       </c>
@@ -720,8 +749,11 @@
       <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7903</v>
       </c>
@@ -761,8 +793,11 @@
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7904</v>
       </c>
@@ -802,8 +837,11 @@
       <c r="M5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7909</v>
       </c>
@@ -841,6 +879,9 @@
         <v>44</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
